--- a/OnBoard/output/trust/fogli_cala_trust/StationPoint.xlsx
+++ b/OnBoard/output/trust/fogli_cala_trust/StationPoint.xlsx
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="D94" s="2">
-        <v>45976.55</v>
+        <v>45976.53819444445</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
